--- a/magazineDB.xlsx
+++ b/magazineDB.xlsx
@@ -66,10 +66,10 @@
     <t>section</t>
   </si>
   <si>
-    <t>comments</t>
-  </si>
-  <si>
     <t>authorImage</t>
+  </si>
+  <si>
+    <t>commentId</t>
   </si>
 </sst>
 </file>
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,12 +488,12 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
